--- a/Code/Results/Cases/Case_0_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_105/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078908465351631</v>
+        <v>0.04217225448213213</v>
       </c>
       <c r="D2">
-        <v>1.378810641250908</v>
+        <v>0.6254007317898527</v>
       </c>
       <c r="E2">
-        <v>0.06146681652701247</v>
+        <v>0.07971969209722118</v>
       </c>
       <c r="F2">
-        <v>18.26355389268082</v>
+        <v>7.677665792954542</v>
       </c>
       <c r="G2">
-        <v>0.0005633274907420837</v>
+        <v>0.002619586479037079</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.14992382578592</v>
+        <v>6.702089430277283</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3770221293343354</v>
+        <v>0.230991611700361</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.663121664606024</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0869794361655849</v>
+        <v>0.03922197126733096</v>
       </c>
       <c r="D3">
-        <v>1.095560842055704</v>
+        <v>0.5997560311011512</v>
       </c>
       <c r="E3">
-        <v>0.05204409006369914</v>
+        <v>0.07954608488608628</v>
       </c>
       <c r="F3">
-        <v>14.5521335705829</v>
+        <v>7.312664915337109</v>
       </c>
       <c r="G3">
-        <v>0.0006170054732090576</v>
+        <v>0.00263784524586902</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.08385513402018</v>
+        <v>6.40758621250211</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3036985153309786</v>
+        <v>0.2251548882317849</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07641344105751102</v>
+        <v>0.03740463833779728</v>
       </c>
       <c r="D4">
-        <v>0.9548586414884994</v>
+        <v>0.5846394797135872</v>
       </c>
       <c r="E4">
-        <v>0.04744780060525677</v>
+        <v>0.07949401871498196</v>
       </c>
       <c r="F4">
-        <v>12.6899323077086</v>
+        <v>7.096297246036784</v>
       </c>
       <c r="G4">
-        <v>0.0006461457949358206</v>
+        <v>0.002649561795609693</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.54747372240723</v>
+        <v>6.233440295296163</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2672292861380612</v>
+        <v>0.2217824092077194</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07244578812926505</v>
+        <v>0.03666219987600527</v>
       </c>
       <c r="D5">
-        <v>0.9025462032002451</v>
+        <v>0.5786322765804357</v>
       </c>
       <c r="E5">
-        <v>0.04575912579667119</v>
+        <v>0.07948633921435722</v>
       </c>
       <c r="F5">
-        <v>11.99445277510722</v>
+        <v>7.010003513989489</v>
       </c>
       <c r="G5">
-        <v>0.0006574995019779095</v>
+        <v>0.002654464635170271</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.974057912825941</v>
+        <v>6.164096758339895</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2536724432646196</v>
+        <v>0.2204598454045623</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07180322958097918</v>
+        <v>0.03653879501768387</v>
       </c>
       <c r="D6">
-        <v>0.8941039926817211</v>
+        <v>0.5776438682987362</v>
       </c>
       <c r="E6">
-        <v>0.0454878020911611</v>
+        <v>0.07948587676149188</v>
       </c>
       <c r="F6">
-        <v>11.88205627556709</v>
+        <v>6.995785942668533</v>
       </c>
       <c r="G6">
-        <v>0.0006593611484261338</v>
+        <v>0.002655286526118839</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.881408629594716</v>
+        <v>6.152678665535262</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2514850143063114</v>
+        <v>0.220243320850301</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110552</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07635876257984364</v>
+        <v>0.03739463359193707</v>
       </c>
       <c r="D7">
-        <v>0.9541356394512661</v>
+        <v>0.5845578522433357</v>
       </c>
       <c r="E7">
-        <v>0.04742437878384465</v>
+        <v>0.07949386055604002</v>
       </c>
       <c r="F7">
-        <v>12.68033176645361</v>
+        <v>7.09512594510602</v>
       </c>
       <c r="G7">
-        <v>0.0006463006483571601</v>
+        <v>0.002649627396373771</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.53955671570489</v>
+        <v>6.232498609579295</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2670418976137796</v>
+        <v>0.2217643649056527</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.18438911221989</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09999837750224572</v>
+        <v>0.04115597052486208</v>
       </c>
       <c r="D8">
-        <v>1.271262852787174</v>
+        <v>0.6164245101475387</v>
       </c>
       <c r="E8">
-        <v>0.05786834921534023</v>
+        <v>0.0796484072896142</v>
       </c>
       <c r="F8">
-        <v>16.86032780436341</v>
+        <v>7.550163329668123</v>
       </c>
       <c r="G8">
-        <v>0.0005830213801589768</v>
+        <v>0.002625777846524649</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.99009341110656</v>
+        <v>6.599122840620311</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3492073244336211</v>
+        <v>0.228934403684363</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09999837750224572</v>
+        <v>0.04850408655065053</v>
       </c>
       <c r="D9">
-        <v>1.271262852787174</v>
+        <v>0.6841645191989869</v>
       </c>
       <c r="E9">
-        <v>0.05786834921534023</v>
+        <v>0.08039250942738008</v>
       </c>
       <c r="F9">
-        <v>16.86032780436341</v>
+        <v>8.507258773144315</v>
       </c>
       <c r="G9">
-        <v>0.0005830213801589768</v>
+        <v>0.002582968601502634</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.99009341110656</v>
+        <v>7.373821485815938</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3492073244336211</v>
+        <v>0.2447374443017338</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7.348453399592699</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09999837750224572</v>
+        <v>0.05391293722860269</v>
       </c>
       <c r="D10">
-        <v>1.271262852787174</v>
+        <v>0.7375099410671169</v>
       </c>
       <c r="E10">
-        <v>0.05786834921534023</v>
+        <v>0.08122049725138325</v>
       </c>
       <c r="F10">
-        <v>16.86032780436341</v>
+        <v>9.254813788461888</v>
       </c>
       <c r="G10">
-        <v>0.0005830213801589768</v>
+        <v>0.00255385582534831</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.99009341110656</v>
+        <v>7.981023838710314</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3492073244336211</v>
+        <v>0.2575078008059961</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>7.348453399592699</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09999837750224572</v>
+        <v>0.05638207931312422</v>
       </c>
       <c r="D11">
-        <v>1.271262852787174</v>
+        <v>0.7626428374325656</v>
       </c>
       <c r="E11">
-        <v>0.05786834921534023</v>
+        <v>0.0816611850509581</v>
       </c>
       <c r="F11">
-        <v>16.86032780436341</v>
+        <v>9.605674321016124</v>
       </c>
       <c r="G11">
-        <v>0.0005830213801589768</v>
+        <v>0.002541102731681808</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.99009341110656</v>
+        <v>8.266458780448204</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3492073244336211</v>
+        <v>0.2635920434573933</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7.348453399592699</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09999837750224572</v>
+        <v>0.05731886261308716</v>
       </c>
       <c r="D12">
-        <v>1.271262852787174</v>
+        <v>0.772292150534895</v>
       </c>
       <c r="E12">
-        <v>0.05786834921534023</v>
+        <v>0.08183752697458502</v>
       </c>
       <c r="F12">
-        <v>16.86032780436341</v>
+        <v>9.740187184479396</v>
       </c>
       <c r="G12">
-        <v>0.0005830213801589768</v>
+        <v>0.002536342583612769</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.99009341110656</v>
+        <v>8.375952612406877</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3492073244336211</v>
+        <v>0.2659375074848214</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7.348453399592699</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09999837750224572</v>
+        <v>0.05711702194739132</v>
       </c>
       <c r="D13">
-        <v>1.271262852787174</v>
+        <v>0.7702080016600235</v>
       </c>
       <c r="E13">
-        <v>0.05786834921534023</v>
+        <v>0.08179912348007079</v>
       </c>
       <c r="F13">
-        <v>16.86032780436341</v>
+        <v>9.711142455711865</v>
       </c>
       <c r="G13">
-        <v>0.0005830213801589768</v>
+        <v>0.002537364712529651</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.99009341110656</v>
+        <v>8.352307299490803</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3492073244336211</v>
+        <v>0.2654304920337438</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>7.348453399592699</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09999837750224572</v>
+        <v>0.05645911036127416</v>
       </c>
       <c r="D14">
-        <v>1.271262852787174</v>
+        <v>0.763434001460837</v>
       </c>
       <c r="E14">
-        <v>0.05786834921534023</v>
+        <v>0.08167550163509318</v>
       </c>
       <c r="F14">
-        <v>16.86032780436341</v>
+        <v>9.616707137113394</v>
       </c>
       <c r="G14">
-        <v>0.0005830213801589768</v>
+        <v>0.002540709732909306</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.99009341110656</v>
+        <v>8.27543825106244</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3492073244336211</v>
+        <v>0.2637841629912572</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>7.348453399592699</v>
+        <v>4.371107314139238</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09999837750224572</v>
+        <v>0.05605636766081545</v>
       </c>
       <c r="D15">
-        <v>1.271262852787174</v>
+        <v>0.7593021559002295</v>
       </c>
       <c r="E15">
-        <v>0.05786834921534023</v>
+        <v>0.08160101989770396</v>
       </c>
       <c r="F15">
-        <v>16.86032780436341</v>
+        <v>9.559080589523489</v>
       </c>
       <c r="G15">
-        <v>0.0005830213801589768</v>
+        <v>0.002542767621922312</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.99009341110656</v>
+        <v>8.228539289177945</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3492073244336211</v>
+        <v>0.2627812025923362</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>7.348453399592699</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09999837750224572</v>
+        <v>0.05375179145474362</v>
       </c>
       <c r="D16">
-        <v>1.271262852787174</v>
+        <v>0.7358855031890243</v>
       </c>
       <c r="E16">
-        <v>0.05786834921534023</v>
+        <v>0.08119300721998002</v>
       </c>
       <c r="F16">
-        <v>16.86032780436341</v>
+        <v>9.232109634592746</v>
       </c>
       <c r="G16">
-        <v>0.0005830213801589768</v>
+        <v>0.002554699024554767</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.99009341110656</v>
+        <v>7.962562223481825</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3492073244336211</v>
+        <v>0.2571158785252976</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7.348453399592699</v>
+        <v>4.089429168003846</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09999837750224572</v>
+        <v>0.0523405883303667</v>
       </c>
       <c r="D17">
-        <v>1.271262852787174</v>
+        <v>0.7217471205205186</v>
       </c>
       <c r="E17">
-        <v>0.05786834921534023</v>
+        <v>0.08095928151067966</v>
       </c>
       <c r="F17">
-        <v>16.86032780436341</v>
+        <v>9.034355760268909</v>
       </c>
       <c r="G17">
-        <v>0.0005830213801589768</v>
+        <v>0.002562143223105643</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.99009341110656</v>
+        <v>7.801810180466703</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3492073244336211</v>
+        <v>0.2537121625090606</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7.348453399592699</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09999837750224572</v>
+        <v>0.05152968032149374</v>
       </c>
       <c r="D18">
-        <v>1.271262852787174</v>
+        <v>0.713696114003227</v>
       </c>
       <c r="E18">
-        <v>0.05786834921534023</v>
+        <v>0.08083085946042701</v>
       </c>
       <c r="F18">
-        <v>16.86032780436341</v>
+        <v>8.921622795283042</v>
       </c>
       <c r="G18">
-        <v>0.0005830213801589768</v>
+        <v>0.002566471176755033</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.99009341110656</v>
+        <v>7.71021217757459</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3492073244336211</v>
+        <v>0.2517801903935464</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>7.348453399592699</v>
+        <v>3.857331695637072</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09999837750224572</v>
+        <v>0.05125523879557647</v>
       </c>
       <c r="D19">
-        <v>1.271262852787174</v>
+        <v>0.7109838738061853</v>
       </c>
       <c r="E19">
-        <v>0.05786834921534023</v>
+        <v>0.08078840279677024</v>
       </c>
       <c r="F19">
-        <v>16.86032780436341</v>
+        <v>8.883623910112419</v>
       </c>
       <c r="G19">
-        <v>0.0005830213801589768</v>
+        <v>0.002567944531274395</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.99009341110656</v>
+        <v>7.679344388810875</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3492073244336211</v>
+        <v>0.251130423524927</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7.348453399592699</v>
+        <v>3.828614786363971</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09999837750224572</v>
+        <v>0.05249072895415452</v>
       </c>
       <c r="D20">
-        <v>1.271262852787174</v>
+        <v>0.7232437373290281</v>
       </c>
       <c r="E20">
-        <v>0.05786834921534023</v>
+        <v>0.0809835381175894</v>
       </c>
       <c r="F20">
-        <v>16.86032780436341</v>
+        <v>9.055301795545518</v>
       </c>
       <c r="G20">
-        <v>0.0005830213801589768</v>
+        <v>0.002561345998616787</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.99009341110656</v>
+        <v>7.818832693362765</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3492073244336211</v>
+        <v>0.2540718144955747</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7.348453399592699</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09999837750224572</v>
+        <v>0.05665230244771635</v>
       </c>
       <c r="D21">
-        <v>1.271262852787174</v>
+        <v>0.7654200440833279</v>
       </c>
       <c r="E21">
-        <v>0.05786834921534023</v>
+        <v>0.08171155343018555</v>
       </c>
       <c r="F21">
-        <v>16.86032780436341</v>
+        <v>9.644399505823003</v>
       </c>
       <c r="G21">
-        <v>0.0005830213801589768</v>
+        <v>0.002539725352916793</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.99009341110656</v>
+        <v>8.297977735093582</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3492073244336211</v>
+        <v>0.2642665874595025</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7.348453399592699</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09999837750224572</v>
+        <v>0.05938273211287992</v>
       </c>
       <c r="D22">
-        <v>1.271262852787174</v>
+        <v>0.793758085372076</v>
       </c>
       <c r="E22">
-        <v>0.05786834921534023</v>
+        <v>0.08224264132876158</v>
       </c>
       <c r="F22">
-        <v>16.86032780436341</v>
+        <v>10.03907326760572</v>
       </c>
       <c r="G22">
-        <v>0.0005830213801589768</v>
+        <v>0.002525997533223377</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.99009341110656</v>
+        <v>8.619361651941688</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3492073244336211</v>
+        <v>0.271172307224262</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7.348453399592699</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09999837750224572</v>
+        <v>0.05792429713714853</v>
       </c>
       <c r="D23">
-        <v>1.271262852787174</v>
+        <v>0.7785601720462978</v>
       </c>
       <c r="E23">
-        <v>0.05786834921534023</v>
+        <v>0.08195404232722936</v>
       </c>
       <c r="F23">
-        <v>16.86032780436341</v>
+        <v>9.827510510781678</v>
       </c>
       <c r="G23">
-        <v>0.0005830213801589768</v>
+        <v>0.002533287959621351</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.99009341110656</v>
+        <v>8.447051655679502</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3492073244336211</v>
+        <v>0.2674636975786626</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7.348453399592699</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09999837750224572</v>
+        <v>0.05242284913732931</v>
       </c>
       <c r="D24">
-        <v>1.271262852787174</v>
+        <v>0.7225668765436524</v>
       </c>
       <c r="E24">
-        <v>0.05786834921534023</v>
+        <v>0.08097255319203356</v>
       </c>
       <c r="F24">
-        <v>16.86032780436341</v>
+        <v>9.04582911518645</v>
       </c>
       <c r="G24">
-        <v>0.0005830213801589768</v>
+        <v>0.002561706273720219</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.99009341110656</v>
+        <v>7.811134265689134</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3492073244336211</v>
+        <v>0.2539091385161356</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>7.348453399592699</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09999837750224572</v>
+        <v>0.04651647950207405</v>
       </c>
       <c r="D25">
-        <v>1.271262852787174</v>
+        <v>0.6652393358801305</v>
       </c>
       <c r="E25">
-        <v>0.05786834921534023</v>
+        <v>0.08014275415760252</v>
       </c>
       <c r="F25">
-        <v>16.86032780436341</v>
+        <v>8.240914992244655</v>
       </c>
       <c r="G25">
-        <v>0.0005830213801589768</v>
+        <v>0.002594133311857528</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.99009341110656</v>
+        <v>7.157871378860023</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3492073244336211</v>
+        <v>0.2402659826011018</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>7.348453399592699</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_105/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04217225448213213</v>
+        <v>0.1078908465351489</v>
       </c>
       <c r="D2">
-        <v>0.6254007317898527</v>
+        <v>1.378810641250936</v>
       </c>
       <c r="E2">
-        <v>0.07971969209722118</v>
+        <v>0.06146681652700892</v>
       </c>
       <c r="F2">
-        <v>7.677665792954542</v>
+        <v>18.26355389268082</v>
       </c>
       <c r="G2">
-        <v>0.002619586479037079</v>
+        <v>0.0005633274907205716</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.702089430277283</v>
+        <v>15.14992382578595</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.230991611700361</v>
+        <v>0.3770221293341933</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.663121664606138</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03922197126733096</v>
+        <v>0.08697943616612491</v>
       </c>
       <c r="D3">
-        <v>0.5997560311011512</v>
+        <v>1.09556084205613</v>
       </c>
       <c r="E3">
-        <v>0.07954608488608628</v>
+        <v>0.05204409006369204</v>
       </c>
       <c r="F3">
-        <v>7.312664915337109</v>
+        <v>14.55213357058284</v>
       </c>
       <c r="G3">
-        <v>0.00263784524586902</v>
+        <v>0.0006170054732122702</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.40758621250211</v>
+        <v>12.08385513402013</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2251548882317849</v>
+        <v>0.3036985153307938</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03740463833779728</v>
+        <v>0.07641344105707759</v>
       </c>
       <c r="D4">
-        <v>0.5846394797135872</v>
+        <v>0.9548586414886699</v>
       </c>
       <c r="E4">
-        <v>0.07949401871498196</v>
+        <v>0.04744780060526921</v>
       </c>
       <c r="F4">
-        <v>7.096297246036784</v>
+        <v>12.68993230770877</v>
       </c>
       <c r="G4">
-        <v>0.002649561795609693</v>
+        <v>0.0006461457946714768</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.233440295296163</v>
+        <v>10.54747372240732</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2217824092077194</v>
+        <v>0.2672292861380328</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03666219987600527</v>
+        <v>0.07244578812930769</v>
       </c>
       <c r="D5">
-        <v>0.5786322765804357</v>
+        <v>0.902546203200302</v>
       </c>
       <c r="E5">
-        <v>0.07948633921435722</v>
+        <v>0.04575912579670316</v>
       </c>
       <c r="F5">
-        <v>7.010003513989489</v>
+        <v>11.99445277510694</v>
       </c>
       <c r="G5">
-        <v>0.002654464635170271</v>
+        <v>0.0006574995017657207</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.164096758339895</v>
+        <v>9.974057912825771</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2204598454045623</v>
+        <v>0.2536724432646764</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03653879501768387</v>
+        <v>0.07180322958090812</v>
       </c>
       <c r="D6">
-        <v>0.5776438682987362</v>
+        <v>0.8941039926815222</v>
       </c>
       <c r="E6">
-        <v>0.07948587676149188</v>
+        <v>0.04548780209118597</v>
       </c>
       <c r="F6">
-        <v>6.995785942668533</v>
+        <v>11.88205627556698</v>
       </c>
       <c r="G6">
-        <v>0.002655286526118839</v>
+        <v>0.0006593611483062178</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.152678665535262</v>
+        <v>9.881408629594631</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.220243320850301</v>
+        <v>0.2514850143063683</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110665</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03739463359193707</v>
+        <v>0.07635876258027707</v>
       </c>
       <c r="D7">
-        <v>0.5845578522433357</v>
+        <v>0.9541356394516072</v>
       </c>
       <c r="E7">
-        <v>0.07949386055604002</v>
+        <v>0.0474243787838855</v>
       </c>
       <c r="F7">
-        <v>7.09512594510602</v>
+        <v>12.680331766454</v>
       </c>
       <c r="G7">
-        <v>0.002649627396373771</v>
+        <v>0.0006463006483372613</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.232498609579295</v>
+        <v>10.53955671570517</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2217643649056527</v>
+        <v>0.267041897613808</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04115597052486208</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D8">
-        <v>0.6164245101475387</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E8">
-        <v>0.0796484072896142</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F8">
-        <v>7.550163329668123</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G8">
-        <v>0.002625777846524649</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.599122840620311</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.228934403684363</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04850408655065053</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D9">
-        <v>0.6841645191989869</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E9">
-        <v>0.08039250942738008</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F9">
-        <v>8.507258773144315</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G9">
-        <v>0.002582968601502634</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.373821485815938</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2447374443017338</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05391293722860269</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D10">
-        <v>0.7375099410671169</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E10">
-        <v>0.08122049725138325</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F10">
-        <v>9.254813788461888</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G10">
-        <v>0.00255385582534831</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.981023838710314</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2575078008059961</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05638207931312422</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D11">
-        <v>0.7626428374325656</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E11">
-        <v>0.0816611850509581</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F11">
-        <v>9.605674321016124</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G11">
-        <v>0.002541102731681808</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.266458780448204</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2635920434573933</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05731886261308716</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D12">
-        <v>0.772292150534895</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E12">
-        <v>0.08183752697458502</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F12">
-        <v>9.740187184479396</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G12">
-        <v>0.002536342583612769</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.375952612406877</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2659375074848214</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05711702194739132</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D13">
-        <v>0.7702080016600235</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E13">
-        <v>0.08179912348007079</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F13">
-        <v>9.711142455711865</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G13">
-        <v>0.002537364712529651</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.352307299490803</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2654304920337438</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05645911036127416</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D14">
-        <v>0.763434001460837</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E14">
-        <v>0.08167550163509318</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F14">
-        <v>9.616707137113394</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G14">
-        <v>0.002540709732909306</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.27543825106244</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2637841629912572</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139238</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05605636766081545</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D15">
-        <v>0.7593021559002295</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E15">
-        <v>0.08160101989770396</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F15">
-        <v>9.559080589523489</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G15">
-        <v>0.002542767621922312</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.228539289177945</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2627812025923362</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05375179145474362</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D16">
-        <v>0.7358855031890243</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E16">
-        <v>0.08119300721998002</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F16">
-        <v>9.232109634592746</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G16">
-        <v>0.002554699024554767</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.962562223481825</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2571158785252976</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003846</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0523405883303667</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D17">
-        <v>0.7217471205205186</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E17">
-        <v>0.08095928151067966</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F17">
-        <v>9.034355760268909</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G17">
-        <v>0.002562143223105643</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.801810180466703</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2537121625090606</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05152968032149374</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D18">
-        <v>0.713696114003227</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E18">
-        <v>0.08083085946042701</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F18">
-        <v>8.921622795283042</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G18">
-        <v>0.002566471176755033</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.71021217757459</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2517801903935464</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637072</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05125523879557647</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D19">
-        <v>0.7109838738061853</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E19">
-        <v>0.08078840279677024</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F19">
-        <v>8.883623910112419</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G19">
-        <v>0.002567944531274395</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.679344388810875</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.251130423524927</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786363971</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05249072895415452</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D20">
-        <v>0.7232437373290281</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E20">
-        <v>0.0809835381175894</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F20">
-        <v>9.055301795545518</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G20">
-        <v>0.002561345998616787</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.818832693362765</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2540718144955747</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05665230244771635</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D21">
-        <v>0.7654200440833279</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E21">
-        <v>0.08171155343018555</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F21">
-        <v>9.644399505823003</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G21">
-        <v>0.002539725352916793</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.297977735093582</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2642665874595025</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05938273211287992</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D22">
-        <v>0.793758085372076</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E22">
-        <v>0.08224264132876158</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F22">
-        <v>10.03907326760572</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G22">
-        <v>0.002525997533223377</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.619361651941688</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.271172307224262</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05792429713714853</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D23">
-        <v>0.7785601720462978</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E23">
-        <v>0.08195404232722936</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F23">
-        <v>9.827510510781678</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G23">
-        <v>0.002533287959621351</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.447051655679502</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2674636975786626</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05242284913732931</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D24">
-        <v>0.7225668765436524</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E24">
-        <v>0.08097255319203356</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F24">
-        <v>9.04582911518645</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G24">
-        <v>0.002561706273720219</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.811134265689134</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2539091385161356</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04651647950207405</v>
+        <v>0.09999837750331153</v>
       </c>
       <c r="D25">
-        <v>0.6652393358801305</v>
+        <v>1.271262852787146</v>
       </c>
       <c r="E25">
-        <v>0.08014275415760252</v>
+        <v>0.05786834921519812</v>
       </c>
       <c r="F25">
-        <v>8.240914992244655</v>
+        <v>16.86032780436352</v>
       </c>
       <c r="G25">
-        <v>0.002594133311857528</v>
+        <v>0.0005830213804298139</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.157871378860023</v>
+        <v>13.99009341110661</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2402659826011018</v>
+        <v>0.3492073244335501</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O25">
         <v>0</v>
